--- a/src/com/NFHS/xls/Registration.xlsx
+++ b/src/com/NFHS/xls/Registration.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
   <si>
     <t>TCID</t>
   </si>
@@ -246,16 +246,20 @@
     <t>User should  be registered successfully</t>
   </si>
   <si>
-    <t>bhabani.shankar115@weboapps.com</t>
-  </si>
-  <si>
     <t>test1234</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>bhabani.shankar200@weboapps.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -769,12 +773,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="54.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="54.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="54.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -925,6 +929,9 @@
       </c>
       <c r="D10" s="20" t="s">
         <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -946,12 +953,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1">
@@ -1051,11 +1058,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1">
@@ -1117,12 +1124,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1">
@@ -1178,10 +1185,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1">
@@ -1240,10 +1247,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1">
@@ -1308,10 +1315,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1">
@@ -1376,10 +1383,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1">
@@ -1439,17 +1446,17 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1">
@@ -1477,16 +1484,16 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1">
       <c r="A2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
